--- a/Excel Assignments/VLOOKUP 2a.xlsx
+++ b/Excel Assignments/VLOOKUP 2a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\GitHub\Excel Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0469B89-1800-4B13-BBA5-C8148BD1D0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5B1B8F-0A8C-446B-A03A-167A50B826CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{49AE84F3-0EE5-47A4-BC2B-AA7920376694}"/>
   </bookViews>
@@ -552,8 +552,8 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -754,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="7" t="str">
-        <f>VLOOKUP("Jane Doe",B2:E12,4,)</f>
+        <f>VLOOKUP("Jane Doe",B2:E12,4,FALSE)</f>
         <v>Data Scientist</v>
       </c>
     </row>
@@ -862,7 +862,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="7">
-        <f>VLOOKUP("Mike Lee",B2:E12,2,)</f>
+        <f>VLOOKUP("Mike Lee",B2:E12,2,FALSE)</f>
         <v>45</v>
       </c>
     </row>
@@ -970,7 +970,7 @@
         <v>31</v>
       </c>
       <c r="C41" s="7" t="str">
-        <f>VLOOKUP("B*",B2:E12,4,)</f>
+        <f>VLOOKUP("B*",B2:E12,4,FALSE)</f>
         <v>Accountant</v>
       </c>
     </row>
